--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Abuse treatment center</t>
+  </si>
+  <si>
+    <t>557881000005104</t>
+  </si>
+  <si>
+    <t>COVID-19-testenhed</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,6 +532,20 @@
         <v>46</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
+++ b/fhir/CodeSystem-ehealth-sor-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
